--- a/catAfterlife/Assets/Text/posionRecipe.xlsx
+++ b/catAfterlife/Assets/Text/posionRecipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13741\Documents\Game-3800\catAfterlife\Assets\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958216C2-AD4F-4ECA-8B72-13E5B52ED505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE497B01-5358-4304-AABC-978026EC1428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="1740" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Recipe1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,12 +43,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test Posion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>violet Clover</t>
+  </si>
+  <si>
+    <t>violet Clover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testItem 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavagrapes</t>
+  </si>
+  <si>
+    <t>Turtle Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infernoLotus</t>
   </si>
 </sst>
 </file>
@@ -373,16 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -401,16 +416,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
